--- a/data/management/Management_information_QLB_2016.xlsx
+++ b/data/management/Management_information_QLB_2016.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29343363-B937-A148-B857-FD2E3D00EAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="36740" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="123">
   <si>
     <t>06484</t>
   </si>
@@ -304,9 +310,6 @@
   </si>
   <si>
     <t>CAN</t>
-  </si>
-  <si>
-    <t>40 kg N/ha</t>
   </si>
   <si>
     <t>Medax Top (0.5 l/ha + Turbo (0.5 kg/ha)</t>
@@ -393,7 +396,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -601,7 +604,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
@@ -617,14 +620,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -663,13 +662,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20 % - Akzent3" xfId="3" builtinId="38"/>
-    <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
-    <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -682,14 +680,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -727,7 +728,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -799,7 +800,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -972,32 +973,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="B41" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="10" max="15" width="16.85546875" customWidth="1"/>
-    <col min="16" max="16" width="28.5703125" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="10" max="15" width="16.83203125" customWidth="1"/>
+    <col min="16" max="16" width="28.5" customWidth="1"/>
+    <col min="17" max="17" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -1005,15 +1006,15 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1029,15 +1030,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1053,7 +1054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1069,13 +1070,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -1107,234 +1108,234 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="12">
         <v>95</v>
       </c>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="13"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="13"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="13"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="13"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="13"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="13"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="13"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="12">
         <v>6.8</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="14">
         <v>41889</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="13">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="14">
         <v>41889</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="14">
         <v>42417</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="14">
         <v>42417</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="14">
         <v>42417</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="14">
         <v>42417</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="14">
         <v>42417</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="28.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>74</v>
       </c>
@@ -1355,7 +1356,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="1:17" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>61</v>
       </c>
@@ -1387,47 +1388,47 @@
         <v>63</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L44" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M44" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M44" s="10" t="s">
+      <c r="N44" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="N44" s="10" t="s">
+      <c r="O44" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="O44" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="P44" s="23" t="s">
-        <v>118</v>
+      <c r="P44" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>62</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="16">
         <v>42437</v>
       </c>
-      <c r="D45" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" s="19" t="s">
+      <c r="D45" s="17">
+        <v>40</v>
+      </c>
+      <c r="E45" s="17" t="s">
         <v>95</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="15">
         <v>42310</v>
       </c>
       <c r="H45" s="7" t="s">
@@ -1439,29 +1440,29 @@
       <c r="J45" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K45" s="24">
+      <c r="K45" s="22">
         <v>42472</v>
       </c>
-      <c r="L45" s="24">
+      <c r="L45" s="22">
         <v>42485</v>
       </c>
-      <c r="M45" s="24">
+      <c r="M45" s="22">
         <v>42499</v>
       </c>
-      <c r="N45" s="24">
+      <c r="N45" s="22">
         <v>42513</v>
       </c>
-      <c r="O45" s="24">
+      <c r="O45" s="22">
         <v>42527</v>
       </c>
-      <c r="P45" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q45" s="30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P45" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q45" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -1481,24 +1482,24 @@
         <v>65</v>
       </c>
       <c r="K46" s="8"/>
-      <c r="L46" s="24">
+      <c r="L46" s="22">
         <v>42478</v>
       </c>
-      <c r="M46" s="24">
+      <c r="M46" s="22">
         <v>42499</v>
       </c>
-      <c r="N46" s="24">
+      <c r="N46" s="22">
         <v>42527</v>
       </c>
-      <c r="O46" s="25"/>
-      <c r="P46" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q46" s="31">
+      <c r="O46" s="23"/>
+      <c r="P46" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q46" s="29">
         <v>42575</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -1511,29 +1512,29 @@
       <c r="F47" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="17"/>
+      <c r="G47" s="15"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K47" s="24">
+      <c r="K47" s="22">
         <v>42509</v>
       </c>
-      <c r="L47" s="24">
+      <c r="L47" s="22">
         <v>42520</v>
       </c>
-      <c r="M47" s="24">
+      <c r="M47" s="22">
         <v>42536</v>
       </c>
-      <c r="N47" s="24">
+      <c r="N47" s="22">
         <v>42548</v>
       </c>
-      <c r="O47" s="25"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O47" s="23"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -1553,18 +1554,18 @@
         <v>67</v>
       </c>
       <c r="K48" s="8"/>
-      <c r="L48" s="24">
+      <c r="L48" s="22">
         <v>42492</v>
       </c>
-      <c r="M48" s="24">
+      <c r="M48" s="22">
         <v>42530</v>
       </c>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="32"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -1575,21 +1576,21 @@
       <c r="F49" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="17"/>
+      <c r="G49" s="15"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="8" t="s">
         <v>68</v>
       </c>
       <c r="K49" s="8"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="32"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -1607,20 +1608,20 @@
         <v>69</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L50" s="24">
+        <v>100</v>
+      </c>
+      <c r="L50" s="22">
         <v>42541</v>
       </c>
-      <c r="M50" s="24">
+      <c r="M50" s="22">
         <v>42550</v>
       </c>
-      <c r="N50" s="25"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="32"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -1636,14 +1637,14 @@
       <c r="I51" s="7"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -1654,7 +1655,7 @@
       <c r="F52" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="15">
         <v>42463</v>
       </c>
       <c r="H52" s="7" t="s">
@@ -1665,14 +1666,14 @@
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -1683,31 +1684,31 @@
       <c r="F53" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="15">
         <v>42501</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>88</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-    </row>
-    <row r="55" spans="1:17" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+    </row>
+    <row r="55" spans="1:17" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>61</v>
       </c>
@@ -1739,47 +1740,47 @@
         <v>63</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="L55" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="L55" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="M55" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="M55" s="22" t="s">
+      <c r="N55" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="N55" s="22" t="s">
+      <c r="O55" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="O55" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="P55" s="23" t="s">
-        <v>118</v>
+      <c r="P55" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="Q55" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="33" t="s">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="27">
+      <c r="C56" s="25">
         <v>42437</v>
       </c>
-      <c r="D56" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" s="26" t="s">
+      <c r="D56" s="24">
+        <v>40</v>
+      </c>
+      <c r="E56" s="24" t="s">
         <v>95</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="15">
         <v>42310</v>
       </c>
       <c r="H56" s="7" t="s">
@@ -1792,27 +1793,27 @@
         <v>64</v>
       </c>
       <c r="K56" s="8"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q56" s="30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="33" t="s">
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q56" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
       <c r="F57" s="7" t="s">
         <v>16</v>
       </c>
@@ -1823,54 +1824,54 @@
         <v>65</v>
       </c>
       <c r="K57" s="8"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q57" s="31">
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q57" s="29">
         <v>42573</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
       <c r="F58" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G58" s="17"/>
+      <c r="G58" s="15"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="8" t="s">
         <v>66</v>
       </c>
       <c r="K58" s="8"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="32"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
       <c r="F59" s="7" t="s">
         <v>18</v>
       </c>
@@ -1881,56 +1882,56 @@
         <v>67</v>
       </c>
       <c r="K59" s="8"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="25"/>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="32"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="23"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
       <c r="F60" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="15">
         <v>42471</v>
       </c>
       <c r="H60" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I60" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="J60" s="8" t="s">
         <v>68</v>
       </c>
       <c r="K60" s="8"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="32"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="33" t="s">
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
       <c r="F61" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G61" s="15">
         <v>42508</v>
       </c>
       <c r="H61" s="7" t="s">
@@ -1943,25 +1944,25 @@
         <v>69</v>
       </c>
       <c r="K61" s="8"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="32"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
       <c r="F62" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="15">
         <v>42521</v>
       </c>
       <c r="H62" s="7" t="s">
@@ -1972,25 +1973,25 @@
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="32"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
       <c r="F63" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G63" s="15">
         <v>42463</v>
       </c>
       <c r="H63" s="7" t="s">
@@ -2001,49 +2002,49 @@
       </c>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="25"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="33" t="s">
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>91</v>
       </c>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
       <c r="F64" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="15">
         <v>42501</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>88</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
-      <c r="O64" s="25"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
-    </row>
-    <row r="66" spans="1:17" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+    </row>
+    <row r="66" spans="1:17" ht="50.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>61</v>
       </c>
@@ -2075,47 +2076,47 @@
         <v>63</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="L66" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="L66" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="M66" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="M66" s="22" t="s">
+      <c r="N66" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="N66" s="22" t="s">
+      <c r="O66" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="O66" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="P66" s="23" t="s">
-        <v>118</v>
+      <c r="P66" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="Q66" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C67" s="16">
         <v>42437</v>
       </c>
-      <c r="D67" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E67" s="19" t="s">
+      <c r="D67" s="17">
+        <v>40</v>
+      </c>
+      <c r="E67" s="17" t="s">
         <v>95</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G67" s="15">
         <v>42310</v>
       </c>
       <c r="H67" s="7" t="s">
@@ -2127,42 +2128,42 @@
       <c r="J67" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K67" s="24">
+      <c r="K67" s="22">
         <v>42472</v>
       </c>
-      <c r="L67" s="24">
+      <c r="L67" s="22">
         <v>42485</v>
       </c>
-      <c r="M67" s="24">
+      <c r="M67" s="22">
         <v>42499</v>
       </c>
-      <c r="N67" s="24">
+      <c r="N67" s="22">
         <v>42513</v>
       </c>
-      <c r="O67" s="24">
+      <c r="O67" s="22">
         <v>42527</v>
       </c>
-      <c r="P67" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q67" s="30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P67" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q67" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="18">
+      <c r="C68" s="16">
         <v>42466</v>
       </c>
-      <c r="D68" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E68" s="19" t="s">
+      <c r="D68" s="17">
+        <v>40</v>
+      </c>
+      <c r="E68" s="17" t="s">
         <v>95</v>
       </c>
       <c r="F68" s="7" t="s">
@@ -2175,65 +2176,65 @@
         <v>65</v>
       </c>
       <c r="K68" s="8"/>
-      <c r="L68" s="24">
+      <c r="L68" s="22">
         <v>42478</v>
       </c>
-      <c r="M68" s="24">
+      <c r="M68" s="22">
         <v>42499</v>
       </c>
-      <c r="N68" s="24">
+      <c r="N68" s="22">
         <v>42527</v>
       </c>
-      <c r="O68" s="25"/>
-      <c r="P68" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q68" s="31">
+      <c r="O68" s="23"/>
+      <c r="P68" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q68" s="29">
         <v>42578</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>70</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C69" s="16">
         <v>42509</v>
       </c>
-      <c r="D69" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E69" s="19" t="s">
+      <c r="D69" s="17">
+        <v>40</v>
+      </c>
+      <c r="E69" s="17" t="s">
         <v>95</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G69" s="17"/>
+      <c r="G69" s="15"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K69" s="24">
+      <c r="K69" s="22">
         <v>42509</v>
       </c>
-      <c r="L69" s="24">
+      <c r="L69" s="22">
         <v>42520</v>
       </c>
-      <c r="M69" s="24">
+      <c r="M69" s="22">
         <v>42536</v>
       </c>
-      <c r="N69" s="24">
+      <c r="N69" s="22">
         <v>42548</v>
       </c>
-      <c r="O69" s="25"/>
-      <c r="P69" s="32"/>
-      <c r="Q69" s="32"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O69" s="23"/>
+      <c r="P69" s="30"/>
+      <c r="Q69" s="30"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2253,18 +2254,18 @@
         <v>67</v>
       </c>
       <c r="K70" s="8"/>
-      <c r="L70" s="24">
+      <c r="L70" s="22">
         <v>42492</v>
       </c>
-      <c r="M70" s="24">
+      <c r="M70" s="22">
         <v>42530</v>
       </c>
-      <c r="N70" s="25"/>
-      <c r="O70" s="25"/>
-      <c r="P70" s="32"/>
-      <c r="Q70" s="32"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N70" s="23"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="30"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2282,14 +2283,14 @@
         <v>68</v>
       </c>
       <c r="K71" s="8"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="25"/>
-      <c r="O71" s="25"/>
-      <c r="P71" s="32"/>
-      <c r="Q71" s="32"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="30"/>
+      <c r="Q71" s="30"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2307,20 +2308,20 @@
         <v>69</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L72" s="24">
+        <v>100</v>
+      </c>
+      <c r="L72" s="22">
         <v>42541</v>
       </c>
-      <c r="M72" s="24">
+      <c r="M72" s="22">
         <v>42550</v>
       </c>
-      <c r="N72" s="25"/>
-      <c r="O72" s="25"/>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="32"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N72" s="23"/>
+      <c r="O72" s="23"/>
+      <c r="P72" s="30"/>
+      <c r="Q72" s="30"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -2340,10 +2341,10 @@
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
-      <c r="P73" s="32"/>
-      <c r="Q73" s="32"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P73" s="30"/>
+      <c r="Q73" s="30"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -2354,7 +2355,7 @@
       <c r="F74" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G74" s="15">
         <v>42463</v>
       </c>
       <c r="H74" s="7" t="s">
@@ -2369,10 +2370,10 @@
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
-      <c r="P74" s="32"/>
-      <c r="Q74" s="32"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P74" s="30"/>
+      <c r="Q74" s="30"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -2383,14 +2384,14 @@
       <c r="F75" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G75" s="17">
+      <c r="G75" s="15">
         <v>42501</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>88</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
@@ -2398,10 +2399,10 @@
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
-      <c r="P75" s="32"/>
-      <c r="Q75" s="32"/>
-    </row>
-    <row r="77" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P75" s="30"/>
+      <c r="Q75" s="30"/>
+    </row>
+    <row r="77" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>61</v>
       </c>
@@ -2433,47 +2434,47 @@
         <v>63</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L77" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M77" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M77" s="10" t="s">
+      <c r="N77" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="N77" s="10" t="s">
+      <c r="O77" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="O77" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="P77" s="23" t="s">
-        <v>118</v>
+      <c r="P77" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="Q77" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>75</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="18">
+      <c r="C78" s="16">
         <v>42437</v>
       </c>
-      <c r="D78" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E78" s="19" t="s">
+      <c r="D78" s="17">
+        <v>40</v>
+      </c>
+      <c r="E78" s="17" t="s">
         <v>95</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G78" s="15">
         <v>42310</v>
       </c>
       <c r="H78" s="7" t="s">
@@ -2490,27 +2491,27 @@
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
-      <c r="P78" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q78" s="30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P78" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q78" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>75</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="18">
+      <c r="C79" s="16">
         <v>42466</v>
       </c>
-      <c r="D79" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E79" s="19" t="s">
+      <c r="D79" s="17">
+        <v>40</v>
+      </c>
+      <c r="E79" s="17" t="s">
         <v>95</v>
       </c>
       <c r="F79" s="7" t="s">
@@ -2527,33 +2528,33 @@
       <c r="M79" s="8"/>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
-      <c r="P79" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q79" s="31">
+      <c r="P79" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q79" s="29">
         <v>42576</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>75</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="18">
+      <c r="C80" s="16">
         <v>42509</v>
       </c>
-      <c r="D80" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E80" s="19" t="s">
+      <c r="D80" s="17">
+        <v>40</v>
+      </c>
+      <c r="E80" s="17" t="s">
         <v>95</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G80" s="17"/>
+      <c r="G80" s="15"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="8" t="s">
@@ -2564,10 +2565,10 @@
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
-      <c r="P80" s="32"/>
-      <c r="Q80" s="32"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P80" s="30"/>
+      <c r="Q80" s="30"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>75</v>
       </c>
@@ -2591,10 +2592,10 @@
       <c r="M81" s="8"/>
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
-      <c r="P81" s="32"/>
-      <c r="Q81" s="32"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P81" s="30"/>
+      <c r="Q81" s="30"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>75</v>
       </c>
@@ -2605,14 +2606,14 @@
       <c r="F82" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G82" s="15">
         <v>42471</v>
       </c>
       <c r="H82" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I82" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>68</v>
@@ -2622,10 +2623,10 @@
       <c r="M82" s="8"/>
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
-      <c r="P82" s="32"/>
-      <c r="Q82" s="32"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P82" s="30"/>
+      <c r="Q82" s="30"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>75</v>
       </c>
@@ -2636,7 +2637,7 @@
       <c r="F83" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G83" s="17">
+      <c r="G83" s="15">
         <v>42508</v>
       </c>
       <c r="H83" s="7" t="s">
@@ -2653,10 +2654,10 @@
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
-      <c r="P83" s="32"/>
-      <c r="Q83" s="32"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P83" s="30"/>
+      <c r="Q83" s="30"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>75</v>
       </c>
@@ -2667,7 +2668,7 @@
       <c r="F84" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G84" s="15">
         <v>42521</v>
       </c>
       <c r="H84" s="7" t="s">
@@ -2682,10 +2683,10 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="32"/>
-      <c r="Q84" s="32"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P84" s="30"/>
+      <c r="Q84" s="30"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>75</v>
       </c>
@@ -2696,7 +2697,7 @@
       <c r="F85" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G85" s="17">
+      <c r="G85" s="15">
         <v>42463</v>
       </c>
       <c r="H85" s="7" t="s">
@@ -2711,10 +2712,10 @@
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
-      <c r="P85" s="32"/>
-      <c r="Q85" s="32"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P85" s="30"/>
+      <c r="Q85" s="30"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>75</v>
       </c>
@@ -2725,14 +2726,14 @@
       <c r="F86" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G86" s="17">
+      <c r="G86" s="15">
         <v>42501</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>88</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
@@ -2740,8 +2741,8 @@
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
-      <c r="P86" s="32"/>
-      <c r="Q86" s="32"/>
+      <c r="P86" s="30"/>
+      <c r="Q86" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2750,24 +2751,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/management/Management_information_QLB_2016.xlsx
+++ b/data/management/Management_information_QLB_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29343363-B937-A148-B857-FD2E3D00EAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEF37BD-B512-9F43-98F0-35A2E6172DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="36740" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -327,12 +327,6 @@
     <t>BBCH65</t>
   </si>
   <si>
-    <t>Lucerne, ryegrass</t>
-  </si>
-  <si>
-    <t>Avena (green cutting, mulching)</t>
-  </si>
-  <si>
     <t>Cultivation, soil-levelling</t>
   </si>
   <si>
@@ -391,6 +385,12 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>avena (green cutting, mulching)</t>
+  </si>
+  <si>
+    <t>lucerne, ryegrass</t>
   </si>
 </sst>
 </file>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1011,7 +1011,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1035,7 +1035,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1110,10 +1110,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" s="1"/>
     </row>
@@ -1153,7 +1153,7 @@
         <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" s="1"/>
     </row>
@@ -1162,7 +1162,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C24" s="1"/>
     </row>
@@ -1171,7 +1171,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -1180,7 +1180,7 @@
         <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C26" s="1"/>
     </row>
@@ -1189,7 +1189,7 @@
         <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1"/>
     </row>
@@ -1207,7 +1207,7 @@
         <v>51</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29" s="1"/>
     </row>
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C30" s="1"/>
     </row>
@@ -1225,7 +1225,7 @@
         <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C31" s="1"/>
     </row>
@@ -1391,19 +1391,19 @@
         <v>99</v>
       </c>
       <c r="L44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="N44" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M44" s="10" t="s">
+      <c r="O44" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="N44" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O44" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="P44" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>7</v>
@@ -1456,10 +1456,10 @@
         <v>42527</v>
       </c>
       <c r="P45" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q45" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="O46" s="23"/>
       <c r="P46" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q46" s="29">
         <v>42575</v>
@@ -1743,19 +1743,19 @@
         <v>99</v>
       </c>
       <c r="L55" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="M55" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N55" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="M55" s="20" t="s">
+      <c r="O55" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="N55" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="O55" s="20" t="s">
-        <v>112</v>
-      </c>
       <c r="P55" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q55" s="10" t="s">
         <v>7</v>
@@ -1798,10 +1798,10 @@
       <c r="N56" s="23"/>
       <c r="O56" s="23"/>
       <c r="P56" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q56" s="28" t="s">
         <v>116</v>
-      </c>
-      <c r="Q56" s="28" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -1829,7 +1829,7 @@
       <c r="N57" s="23"/>
       <c r="O57" s="23"/>
       <c r="P57" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q57" s="29">
         <v>42573</v>
@@ -2079,19 +2079,19 @@
         <v>99</v>
       </c>
       <c r="L66" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="M66" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N66" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="M66" s="20" t="s">
+      <c r="O66" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="N66" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="O66" s="20" t="s">
-        <v>112</v>
-      </c>
       <c r="P66" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q66" s="10" t="s">
         <v>7</v>
@@ -2144,10 +2144,10 @@
         <v>42527</v>
       </c>
       <c r="P67" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q67" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="O68" s="23"/>
       <c r="P68" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q68" s="29">
         <v>42578</v>
@@ -2437,19 +2437,19 @@
         <v>99</v>
       </c>
       <c r="L77" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M77" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="N77" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M77" s="10" t="s">
+      <c r="O77" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="N77" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O77" s="10" t="s">
-        <v>112</v>
-      </c>
       <c r="P77" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q77" s="10" t="s">
         <v>7</v>
@@ -2492,10 +2492,10 @@
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
       <c r="P78" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q78" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -2529,7 +2529,7 @@
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
       <c r="P79" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q79" s="29">
         <v>42576</v>
